--- a/case/write.xlsx
+++ b/case/write.xlsx
@@ -15,7 +15,86 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="0"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="26">
+  <si>
+    <t>学生id</t>
+  </si>
+  <si>
+    <t>思考题得分</t>
+  </si>
+  <si>
+    <t>思考题评分</t>
+  </si>
+  <si>
+    <t>发言得分</t>
+  </si>
+  <si>
+    <t>发言评分</t>
+  </si>
+  <si>
+    <t>提问、回答得分</t>
+  </si>
+  <si>
+    <t>提问、回答评分</t>
+  </si>
+  <si>
+    <t>诊断得分</t>
+  </si>
+  <si>
+    <t>诊断评分</t>
+  </si>
+  <si>
+    <t>小组投票得分</t>
+  </si>
+  <si>
+    <t>小组教师评分</t>
+  </si>
+  <si>
+    <t>个人投票得分</t>
+  </si>
+  <si>
+    <t>个人发言得分</t>
+  </si>
+  <si>
+    <t>课堂讨论</t>
+  </si>
+  <si>
+    <t>小组表现</t>
+  </si>
+  <si>
+    <t>个人表现</t>
+  </si>
+  <si>
+    <t>总分</t>
+  </si>
+  <si>
+    <t>533c5182-fd11-4425-88dd-f4081cdf09ab</t>
+  </si>
+  <si>
+    <t>44a17764-291f-4f14-ac25-7abae478b38a</t>
+  </si>
+  <si>
+    <t>4d7d5ffb-2567-4d55-8538-7a4f6c125f82</t>
+  </si>
+  <si>
+    <t>ee20f78e-857e-4af0-8218-3b98f498dbf7</t>
+  </si>
+  <si>
+    <t>7fdda145-681b-4ea9-b0e3-6ffab62fd61b</t>
+  </si>
+  <si>
+    <t>8bcf4503-88ec-42cc-a0fb-c72213fb78db</t>
+  </si>
+  <si>
+    <t>4cf6a311-d832-49d8-a127-4a9feb031292</t>
+  </si>
+  <si>
+    <t>57acbb89-1777-44ab-88f0-a6fe2e20ee90</t>
+  </si>
+  <si>
+    <t>707a589e-3737-4359-a765-543c48bf2a04</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -349,14 +428,545 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:Q10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:17">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>15</v>
+      </c>
+      <c r="I2" t="n">
+        <v>4</v>
+      </c>
+      <c r="J2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="N2" t="n">
+        <v>19</v>
+      </c>
+      <c r="O2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="P2" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="G3" t="n">
+        <v>4</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="N3" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>39.25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>15</v>
+      </c>
+      <c r="G4" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="N4" t="n">
+        <v>32</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>36.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="G5" t="n">
+        <v>4</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="L5" t="n">
+        <v>5</v>
+      </c>
+      <c r="M5" t="n">
+        <v>3</v>
+      </c>
+      <c r="N5" t="n">
+        <v>18.25</v>
+      </c>
+      <c r="O5" t="n">
+        <v>11.05</v>
+      </c>
+      <c r="P5" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>37.3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>11.05</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>14.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="G7" t="n">
+        <v>5</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="N7" t="n">
+        <v>19.25</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>23.75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="n">
+        <v>5</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>12</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>15</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2</v>
+      </c>
+      <c r="J8" t="n">
+        <v>10</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="n">
+        <v>29</v>
+      </c>
+      <c r="O8" t="n">
+        <v>10</v>
+      </c>
+      <c r="P8" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>52.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>12</v>
+      </c>
+      <c r="G9" t="n">
+        <v>2</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>5</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="n">
+        <v>14</v>
+      </c>
+      <c r="O9" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="P9" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>32.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" t="n">
+        <v>5</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4</v>
+      </c>
+      <c r="D10" t="n">
+        <v>15</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>12</v>
+      </c>
+      <c r="G10" t="n">
+        <v>4</v>
+      </c>
+      <c r="H10" t="n">
+        <v>15</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="n">
+        <v>46</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>